--- a/Defense_act.xlsx
+++ b/Defense_act.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Estudos\PosCD\Projeto Aplicado\Dados Coletados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C04CC9-5EC3-483C-A594-A6C88E3B18EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A194AD8F-9D34-4A35-BCE9-BBE2190D2AB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-1155" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="99">
   <si>
     <t>Tackles</t>
   </si>
@@ -301,9 +301,6 @@
   </si>
   <si>
     <t>0.4</t>
-  </si>
-  <si>
-    <t>Squad Total</t>
   </si>
   <si>
     <t>Fabio</t>
@@ -1183,7 +1180,7 @@
   <dimension ref="A1:U35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,10 +1303,10 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>22</v>
@@ -1373,10 +1370,10 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>24</v>
@@ -1440,10 +1437,10 @@
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>26</v>
@@ -1510,7 +1507,7 @@
         <v>28</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>29</v>
@@ -1577,7 +1574,7 @@
         <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>32</v>
@@ -1644,7 +1641,7 @@
         <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>35</v>
@@ -1711,7 +1708,7 @@
         <v>37</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>32</v>
@@ -1778,7 +1775,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>32</v>
@@ -1845,7 +1842,7 @@
         <v>41</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>26</v>
@@ -1912,7 +1909,7 @@
         <v>43</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>32</v>
@@ -1979,7 +1976,7 @@
         <v>45</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>35</v>
@@ -2046,7 +2043,7 @@
         <v>47</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>48</v>
@@ -2113,7 +2110,7 @@
         <v>50</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>35</v>
@@ -2180,7 +2177,7 @@
         <v>52</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>26</v>
@@ -2247,7 +2244,7 @@
         <v>54</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>32</v>
@@ -2314,7 +2311,7 @@
         <v>56</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>26</v>
@@ -2381,7 +2378,7 @@
         <v>58</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>29</v>
@@ -2448,7 +2445,7 @@
         <v>60</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>32</v>
@@ -2515,7 +2512,7 @@
         <v>62</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>32</v>
@@ -2582,7 +2579,7 @@
         <v>64</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>65</v>
@@ -2649,7 +2646,7 @@
         <v>67</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>32</v>
@@ -2716,7 +2713,7 @@
         <v>69</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>32</v>
@@ -2783,7 +2780,7 @@
         <v>71</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>35</v>
@@ -2850,7 +2847,7 @@
         <v>73</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>32</v>
@@ -2917,7 +2914,7 @@
         <v>75</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>32</v>
@@ -2984,7 +2981,7 @@
         <v>77</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>35</v>
@@ -3051,7 +3048,7 @@
         <v>79</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>35</v>
@@ -3118,7 +3115,7 @@
         <v>81</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>35</v>
@@ -3182,7 +3179,7 @@
         <v>83</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>32</v>
@@ -3249,7 +3246,7 @@
         <v>85</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>35</v>
@@ -3316,7 +3313,7 @@
         <v>86</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>48</v>
@@ -3380,7 +3377,7 @@
         <v>88</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>35</v>
@@ -3443,82 +3440,27 @@
       </c>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>90</v>
-      </c>
+      <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="2">
-        <f>AVERAGE(D3:D34)</f>
-        <v>26.90625</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="2">
-        <f>SUM(F3:F34)</f>
-        <v>530</v>
-      </c>
-      <c r="G35" s="2">
-        <f t="shared" ref="G35:L35" si="2">SUM(G3:G34)</f>
-        <v>311</v>
-      </c>
-      <c r="H35" s="2">
-        <f t="shared" si="2"/>
-        <v>213</v>
-      </c>
-      <c r="I35" s="2">
-        <f t="shared" si="2"/>
-        <v>223</v>
-      </c>
-      <c r="J35" s="2">
-        <f t="shared" si="2"/>
-        <v>94</v>
-      </c>
-      <c r="K35" s="2">
-        <f t="shared" si="2"/>
-        <v>241</v>
-      </c>
-      <c r="L35" s="2">
-        <f t="shared" si="2"/>
-        <v>490</v>
-      </c>
-      <c r="M35" s="2">
-        <f>(K35/L35)*100</f>
-        <v>49.183673469387756</v>
-      </c>
-      <c r="N35" s="2">
-        <f>SUM(N3:N34)</f>
-        <v>249</v>
-      </c>
-      <c r="O35" s="2">
-        <f t="shared" ref="O35:U35" si="3">SUM(O3:O34)</f>
-        <v>377</v>
-      </c>
-      <c r="P35" s="2">
-        <f t="shared" si="3"/>
-        <v>127</v>
-      </c>
-      <c r="Q35" s="2">
-        <f t="shared" si="3"/>
-        <v>250</v>
-      </c>
-      <c r="R35" s="2">
-        <f t="shared" si="3"/>
-        <v>299</v>
-      </c>
-      <c r="S35" s="2">
-        <f t="shared" si="3"/>
-        <v>829</v>
-      </c>
-      <c r="T35" s="2">
-        <f t="shared" si="3"/>
-        <v>612</v>
-      </c>
-      <c r="U35" s="2">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="5">
